--- a/data/validScans.xlsx
+++ b/data/validScans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianahaggerty/Documents/MATLAB/projects/blinkCNSAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14D511B-F759-FE41-8329-7145D6C78F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70870928-62C1-0546-829A-C69367CC5A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24980" yWindow="8660" windowWidth="24520" windowHeight="16940" xr2:uid="{0675CD4B-CAF3-154D-9CDD-8456D7D24F2C}"/>
+    <workbookView xWindow="28020" yWindow="8660" windowWidth="21460" windowHeight="16940" xr2:uid="{0675CD4B-CAF3-154D-9CDD-8456D7D24F2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D039BFEA-46F7-8040-84BB-4EFAAB7CD759}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1182,6 +1182,98 @@
         <v>4</v>
       </c>
     </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>14587</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>14587</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>5</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>14586</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>14586</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1">
+        <v>5</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
